--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.27702985468457</v>
+        <v>6.423576</v>
       </c>
       <c r="H2">
-        <v>1.27702985468457</v>
+        <v>19.270728</v>
       </c>
       <c r="I2">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J2">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>31.3689508115999</v>
+        <v>0.09233266666666667</v>
       </c>
       <c r="N2">
-        <v>31.3689508115999</v>
+        <v>0.276998</v>
       </c>
       <c r="O2">
-        <v>0.9861974251902772</v>
+        <v>0.002874858548413657</v>
       </c>
       <c r="P2">
-        <v>0.9861974251902772</v>
+        <v>0.002874858548413658</v>
       </c>
       <c r="Q2">
-        <v>40.05908669654484</v>
+        <v>0.5931059016160001</v>
       </c>
       <c r="R2">
-        <v>40.05908669654484</v>
+        <v>5.337953114544</v>
       </c>
       <c r="S2">
-        <v>0.0003303357137226903</v>
+        <v>4.832706845973551E-06</v>
       </c>
       <c r="T2">
-        <v>0.0003303357137226903</v>
+        <v>4.832706845973552E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.27702985468457</v>
+        <v>6.423576</v>
       </c>
       <c r="H3">
-        <v>1.27702985468457</v>
+        <v>19.270728</v>
       </c>
       <c r="I3">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J3">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.439032063175467</v>
+        <v>31.51785566666667</v>
       </c>
       <c r="N3">
-        <v>0.439032063175467</v>
+        <v>94.553567</v>
       </c>
       <c r="O3">
-        <v>0.01380257480972275</v>
+        <v>0.9813360759751099</v>
       </c>
       <c r="P3">
-        <v>0.01380257480972275</v>
+        <v>0.98133607597511</v>
       </c>
       <c r="Q3">
-        <v>0.5606570518388335</v>
+        <v>202.457341231864</v>
       </c>
       <c r="R3">
-        <v>0.5606570518388335</v>
+        <v>1822.116071086776</v>
       </c>
       <c r="S3">
-        <v>4.62329680094316E-06</v>
+        <v>0.00164964971065538</v>
       </c>
       <c r="T3">
-        <v>4.62329680094316E-06</v>
+        <v>0.00164964971065538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3580.33884961302</v>
+        <v>6.423576</v>
       </c>
       <c r="H4">
-        <v>3580.33884961302</v>
+        <v>19.270728</v>
       </c>
       <c r="I4">
-        <v>0.939106281663183</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J4">
-        <v>0.939106281663183</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>31.3689508115999</v>
+        <v>0.02446166666666667</v>
       </c>
       <c r="N4">
-        <v>31.3689508115999</v>
+        <v>0.07338500000000001</v>
       </c>
       <c r="O4">
-        <v>0.9861974251902772</v>
+        <v>0.0007616354434881705</v>
       </c>
       <c r="P4">
-        <v>0.9861974251902772</v>
+        <v>0.0007616354434881706</v>
       </c>
       <c r="Q4">
-        <v>112311.473262371</v>
+        <v>0.15713137492</v>
       </c>
       <c r="R4">
-        <v>112311.473262371</v>
+        <v>1.41418237428</v>
       </c>
       <c r="S4">
-        <v>0.9261441969562463</v>
+        <v>1.280327626523545E-06</v>
       </c>
       <c r="T4">
-        <v>0.9261441969562463</v>
+        <v>1.280327626523546E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3580.33884961302</v>
+        <v>6.423576</v>
       </c>
       <c r="H5">
-        <v>3580.33884961302</v>
+        <v>19.270728</v>
       </c>
       <c r="I5">
-        <v>0.939106281663183</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J5">
-        <v>0.939106281663183</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.439032063175467</v>
+        <v>0.4826403333333333</v>
       </c>
       <c r="N5">
-        <v>0.439032063175467</v>
+        <v>1.447921</v>
       </c>
       <c r="O5">
-        <v>0.01380257480972275</v>
+        <v>0.01502743003298815</v>
       </c>
       <c r="P5">
-        <v>0.01380257480972275</v>
+        <v>0.01502743003298815</v>
       </c>
       <c r="Q5">
-        <v>1571.883552012882</v>
+        <v>3.100276861832</v>
       </c>
       <c r="R5">
-        <v>1571.883552012882</v>
+        <v>27.902491756488</v>
       </c>
       <c r="S5">
-        <v>0.01296208470693665</v>
+        <v>2.526147383421133E-05</v>
       </c>
       <c r="T5">
-        <v>0.01296208470693665</v>
+        <v>2.526147383421133E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.495626361418856</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H6">
-        <v>0.495626361418856</v>
+        <v>10741.933594</v>
       </c>
       <c r="I6">
-        <v>0.0001300004968570565</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J6">
-        <v>0.0001300004968570565</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>31.3689508115999</v>
+        <v>0.09233266666666667</v>
       </c>
       <c r="N6">
-        <v>31.3689508115999</v>
+        <v>0.276998</v>
       </c>
       <c r="O6">
-        <v>0.9861974251902772</v>
+        <v>0.002874858548413657</v>
       </c>
       <c r="P6">
-        <v>0.9861974251902772</v>
+        <v>0.002874858548413658</v>
       </c>
       <c r="Q6">
-        <v>15.54727895228033</v>
+        <v>330.6104579634236</v>
       </c>
       <c r="R6">
-        <v>15.54727895228033</v>
+        <v>2975.494121670812</v>
       </c>
       <c r="S6">
-        <v>0.0001282061552738859</v>
+        <v>0.002693858582753961</v>
       </c>
       <c r="T6">
-        <v>0.0001282061552738859</v>
+        <v>0.002693858582753962</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.495626361418856</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H7">
-        <v>0.495626361418856</v>
+        <v>10741.933594</v>
       </c>
       <c r="I7">
-        <v>0.0001300004968570565</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J7">
-        <v>0.0001300004968570565</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.439032063175467</v>
+        <v>31.51785566666667</v>
       </c>
       <c r="N7">
-        <v>0.439032063175467</v>
+        <v>94.553567</v>
       </c>
       <c r="O7">
-        <v>0.01380257480972275</v>
+        <v>0.9813360759751099</v>
       </c>
       <c r="P7">
-        <v>0.01380257480972275</v>
+        <v>0.98133607597511</v>
       </c>
       <c r="Q7">
-        <v>0.21759586401787</v>
+        <v>112854.2375322033</v>
       </c>
       <c r="R7">
-        <v>0.21759586401787</v>
+        <v>1015688.13778983</v>
       </c>
       <c r="S7">
-        <v>1.794341583170649E-06</v>
+        <v>0.9195515418629437</v>
       </c>
       <c r="T7">
-        <v>1.794341583170649E-06</v>
+        <v>0.9195515418629439</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>230.384395350604</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H8">
-        <v>230.384395350604</v>
+        <v>10741.933594</v>
       </c>
       <c r="I8">
-        <v>0.06042875882943625</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J8">
-        <v>0.06042875882943625</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>31.3689508115999</v>
+        <v>0.02446166666666667</v>
       </c>
       <c r="N8">
-        <v>31.3689508115999</v>
+        <v>0.07338500000000001</v>
       </c>
       <c r="O8">
-        <v>0.9861974251902772</v>
+        <v>0.0007616354434881705</v>
       </c>
       <c r="P8">
-        <v>0.9861974251902772</v>
+        <v>0.0007616354434881706</v>
       </c>
       <c r="Q8">
-        <v>7226.916765513281</v>
+        <v>87.5885329772989</v>
       </c>
       <c r="R8">
-        <v>7226.916765513281</v>
+        <v>788.2967967956901</v>
       </c>
       <c r="S8">
-        <v>0.05959468636503426</v>
+        <v>0.0007136831749521638</v>
       </c>
       <c r="T8">
-        <v>0.05959468636503426</v>
+        <v>0.0007136831749521639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>230.384395350604</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H9">
-        <v>230.384395350604</v>
+        <v>10741.933594</v>
       </c>
       <c r="I9">
-        <v>0.06042875882943625</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J9">
-        <v>0.06042875882943625</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.439032063175467</v>
+        <v>0.4826403333333333</v>
       </c>
       <c r="N9">
-        <v>0.439032063175467</v>
+        <v>1.447921</v>
       </c>
       <c r="O9">
-        <v>0.01380257480972275</v>
+        <v>0.01502743003298815</v>
       </c>
       <c r="P9">
-        <v>0.01380257480972275</v>
+        <v>0.01502743003298815</v>
       </c>
       <c r="Q9">
-        <v>101.1461364142081</v>
+        <v>1728.163470150897</v>
       </c>
       <c r="R9">
-        <v>101.1461364142081</v>
+        <v>15553.47123135807</v>
       </c>
       <c r="S9">
-        <v>0.0008340724644019878</v>
+        <v>0.01408130893724755</v>
       </c>
       <c r="T9">
-        <v>0.0008340724644019878</v>
+        <v>0.01408130893724756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9157713333333334</v>
+      </c>
+      <c r="H10">
+        <v>2.747314</v>
+      </c>
+      <c r="I10">
+        <v>0.0002396537054071653</v>
+      </c>
+      <c r="J10">
+        <v>0.0002396537054071653</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.09233266666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.276998</v>
+      </c>
+      <c r="O10">
+        <v>0.002874858548413657</v>
+      </c>
+      <c r="P10">
+        <v>0.002874858548413658</v>
+      </c>
+      <c r="Q10">
+        <v>0.08455560926355557</v>
+      </c>
+      <c r="R10">
+        <v>0.7610004833720001</v>
+      </c>
+      <c r="S10">
+        <v>6.889705036487974E-07</v>
+      </c>
+      <c r="T10">
+        <v>6.889705036487976E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9157713333333334</v>
+      </c>
+      <c r="H11">
+        <v>2.747314</v>
+      </c>
+      <c r="I11">
+        <v>0.0002396537054071653</v>
+      </c>
+      <c r="J11">
+        <v>0.0002396537054071653</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>31.51785566666667</v>
+      </c>
+      <c r="N11">
+        <v>94.553567</v>
+      </c>
+      <c r="O11">
+        <v>0.9813360759751099</v>
+      </c>
+      <c r="P11">
+        <v>0.98133607597511</v>
+      </c>
+      <c r="Q11">
+        <v>28.86314870767089</v>
+      </c>
+      <c r="R11">
+        <v>259.768338369038</v>
+      </c>
+      <c r="S11">
+        <v>0.0002351808268571625</v>
+      </c>
+      <c r="T11">
+        <v>0.0002351808268571626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9157713333333334</v>
+      </c>
+      <c r="H12">
+        <v>2.747314</v>
+      </c>
+      <c r="I12">
+        <v>0.0002396537054071653</v>
+      </c>
+      <c r="J12">
+        <v>0.0002396537054071653</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02446166666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.07338500000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.0007616354434881705</v>
+      </c>
+      <c r="P12">
+        <v>0.0007616354434881706</v>
+      </c>
+      <c r="Q12">
+        <v>0.02240129309888889</v>
+      </c>
+      <c r="R12">
+        <v>0.20161163789</v>
+      </c>
+      <c r="S12">
+        <v>1.825287562013697E-07</v>
+      </c>
+      <c r="T12">
+        <v>1.825287562013697E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9157713333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.747314</v>
+      </c>
+      <c r="I13">
+        <v>0.0002396537054071653</v>
+      </c>
+      <c r="J13">
+        <v>0.0002396537054071653</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4826403333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.447921</v>
+      </c>
+      <c r="O13">
+        <v>0.01502743003298815</v>
+      </c>
+      <c r="P13">
+        <v>0.01502743003298815</v>
+      </c>
+      <c r="Q13">
+        <v>0.4419881815771111</v>
+      </c>
+      <c r="R13">
+        <v>3.977893634194</v>
+      </c>
+      <c r="S13">
+        <v>3.601379290152529E-06</v>
+      </c>
+      <c r="T13">
+        <v>3.60137929015253E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>233.243637</v>
+      </c>
+      <c r="H14">
+        <v>699.7309110000001</v>
+      </c>
+      <c r="I14">
+        <v>0.0610389295177331</v>
+      </c>
+      <c r="J14">
+        <v>0.06103892951773311</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.09233266666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.276998</v>
+      </c>
+      <c r="O14">
+        <v>0.002874858548413657</v>
+      </c>
+      <c r="P14">
+        <v>0.002874858548413658</v>
+      </c>
+      <c r="Q14">
+        <v>21.536006987242</v>
+      </c>
+      <c r="R14">
+        <v>193.8240628851781</v>
+      </c>
+      <c r="S14">
+        <v>0.0001754782883100737</v>
+      </c>
+      <c r="T14">
+        <v>0.0001754782883100738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>233.243637</v>
+      </c>
+      <c r="H15">
+        <v>699.7309110000001</v>
+      </c>
+      <c r="I15">
+        <v>0.0610389295177331</v>
+      </c>
+      <c r="J15">
+        <v>0.06103892951773311</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>31.51785566666667</v>
+      </c>
+      <c r="N15">
+        <v>94.553567</v>
+      </c>
+      <c r="O15">
+        <v>0.9813360759751099</v>
+      </c>
+      <c r="P15">
+        <v>0.98133607597511</v>
+      </c>
+      <c r="Q15">
+        <v>7351.339286134394</v>
+      </c>
+      <c r="R15">
+        <v>66162.05357520955</v>
+      </c>
+      <c r="S15">
+        <v>0.0598997035746535</v>
+      </c>
+      <c r="T15">
+        <v>0.05989970357465352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>233.243637</v>
+      </c>
+      <c r="H16">
+        <v>699.7309110000001</v>
+      </c>
+      <c r="I16">
+        <v>0.0610389295177331</v>
+      </c>
+      <c r="J16">
+        <v>0.06103892951773311</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02446166666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.07338500000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.0007616354434881705</v>
+      </c>
+      <c r="P16">
+        <v>0.0007616354434881706</v>
+      </c>
+      <c r="Q16">
+        <v>5.705528100415002</v>
+      </c>
+      <c r="R16">
+        <v>51.34975290373501</v>
+      </c>
+      <c r="S16">
+        <v>4.648941215328183E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.648941215328184E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>233.243637</v>
+      </c>
+      <c r="H17">
+        <v>699.7309110000001</v>
+      </c>
+      <c r="I17">
+        <v>0.0610389295177331</v>
+      </c>
+      <c r="J17">
+        <v>0.06103892951773311</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4826403333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.447921</v>
+      </c>
+      <c r="O17">
+        <v>0.01502743003298815</v>
+      </c>
+      <c r="P17">
+        <v>0.01502743003298815</v>
+      </c>
+      <c r="Q17">
+        <v>112.572786709559</v>
+      </c>
+      <c r="R17">
+        <v>1013.155080386031</v>
+      </c>
+      <c r="S17">
+        <v>0.0009172582426162292</v>
+      </c>
+      <c r="T17">
+        <v>0.0009172582426162294</v>
       </c>
     </row>
   </sheetData>
